--- a/data/trans_dic/P50_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P50_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con cierta dificultad o más para llegar a fin de mes</t>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>40,94%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48,27%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>32,57%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>27,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>33,04%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26,07%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39,35%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33,63%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>29,66%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,12%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>28,82%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>21,76%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>30,22%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>40,19%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>41,31%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,42; 34,17</t>
+          <t>20,83; 35,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 26,57</t>
+          <t>13,27; 26,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,57; 31,6</t>
+          <t>18,32; 34,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 29,14</t>
+          <t>15,06; 31,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,54; 50,6</t>
+          <t>18,78; 37,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,48; 40,48</t>
+          <t>31,27; 51,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,92; 35,01</t>
+          <t>37,1; 59,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 40,34</t>
+          <t>25,53; 40,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 29,67</t>
+          <t>19,47; 34,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,08; 49,8</t>
+          <t>27,07; 42,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,79; 34,74</t>
+          <t>16,92; 29,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,07</t>
+          <t>18,49; 34,71</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,6; 33,6</t>
+          <t>29,91; 47,95</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,87; 27,12</t>
+          <t>25,48; 42,65</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>33,66; 48,09</t>
+          <t>24,68; 35,22</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>18,43; 28,41</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 35,89</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 27,68</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>21,45; 33,44</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>33,29; 47,63</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>34,12; 48,24</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>34,99%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>29,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,76%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>42,91%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>36,25%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>33,09%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>32,38%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>33,82%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>44,95%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>33,42%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>31,8%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>34,44%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>44,94%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>45,61%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,85; 46,9</t>
+          <t>28,76; 47,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 46,98</t>
+          <t>28,28; 49,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,63; 40,23</t>
+          <t>25,3; 39,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,17; 47,48</t>
+          <t>29,01; 50,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,26; 57,86</t>
+          <t>18,46; 37,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,88; 42,23</t>
+          <t>37,18; 57,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 37,3</t>
+          <t>37,66; 59,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,51; 38,73</t>
+          <t>28,69; 41,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,33; 37,06</t>
+          <t>23,19; 37,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,91; 50,77</t>
+          <t>26,11; 38,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,76; 42,61</t>
+          <t>23,96; 37,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,27; 40,54</t>
+          <t>25,7; 40,65</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>27,63; 37,67</t>
+          <t>36,22; 51,76</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>28,36; 40,78</t>
+          <t>35,26; 50,59</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,42; 51,46</t>
+          <t>30,69; 42,24</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27,27; 41,4</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>27,08; 36,91</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>28,91; 41,98</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>24,35; 36,78</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>38,22; 51,2</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>39,73; 52,15</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>30,16%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>38,88%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>32,31%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>23,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,31%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>47,69%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>32,83%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>27,04%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>30,33%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
+          <t>32,84%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
           <t>43,01%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>43,88%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,12; 39,55</t>
+          <t>27,28; 40,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,42; 40,55</t>
+          <t>23,24; 37,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,41; 31,4</t>
+          <t>19,27; 30,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,59; 33,32</t>
+          <t>19,25; 32,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,41; 46,46</t>
+          <t>22,86; 38,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,36; 37,9</t>
+          <t>32,49; 46,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,37</t>
+          <t>31,94; 46,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,51; 40,38</t>
+          <t>27,32; 37,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,59; 34,1</t>
+          <t>19,21; 29,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,52; 54,53</t>
+          <t>30,28; 40,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,8; 37,39</t>
+          <t>24,77; 33,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 33,11</t>
+          <t>27,75; 38,61</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>26,57; 34,13</t>
+          <t>41,39; 54,43</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 31,4</t>
+          <t>42,18; 56,59</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>38,36; 47,8</t>
+          <t>29,22; 37,14</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 31,74</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 33,93</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 31,43</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>27,29; 36,29</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>38,42; 47,91</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>39,02; 48,93</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>52,65%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>45,44%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>36,67%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>36,94%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>36,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>52,91%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>41,26%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>35,61%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>35,02%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
+          <t>41,25%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>35,49%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>34,4%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>36,47%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>36,45%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>52,77%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>50,76%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,23; 42,58</t>
+          <t>31,42; 42,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,52; 40,9</t>
+          <t>28,03; 40,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,16; 39,54</t>
+          <t>27,04; 38,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,06; 39,98</t>
+          <t>26,7; 38,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,95; 60,58</t>
+          <t>27,3; 41,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,87; 50,88</t>
+          <t>43,75; 59,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 42,66</t>
+          <t>42,77; 56,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,85; 42,21</t>
+          <t>40,82; 51,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,3; 45,22</t>
+          <t>31,76; 43,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,8; 59,58</t>
+          <t>31,46; 41,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,52; 45,2</t>
+          <t>36,12; 46,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 39,94</t>
+          <t>33,27; 44,46</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>30,95; 38,66</t>
+          <t>45,7; 59,82</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>32,86; 40,68</t>
+          <t>45,78; 58,38</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>47,72; 58,28</t>
+          <t>37,45; 45,55</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>31,47; 40,02</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>30,49; 38,04</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>32,42; 40,28</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>32,65; 41,47</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>48,11; 57,82</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>45,86; 55,32</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>38,4%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>52,71%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>52,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>41,46%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>35,98%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>36,1%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>38,56%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43,49%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>55,28%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>60,56%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>36,69%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>33,27%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>33,92%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>36,05%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>32,33%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>33,94%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>40,98%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>54,06%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>56,51%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,81; 38,38</t>
+          <t>25,85; 38,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,29; 38,05</t>
+          <t>23,31; 37,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,76; 37,77</t>
+          <t>26,4; 38,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,78; 39,27</t>
+          <t>27,8; 39,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,17; 59,78</t>
+          <t>30,71; 45,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,33; 48,65</t>
+          <t>45,81; 60,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,52; 42,17</t>
+          <t>44,69; 59,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,12; 41,81</t>
+          <t>35,35; 47,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,74; 45,18</t>
+          <t>28,86; 41,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,32; 62,25</t>
+          <t>30,26; 42,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32,08; 41,52</t>
+          <t>32,32; 45,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,33; 38,01</t>
+          <t>35,9; 51,23</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>30,0; 38,09</t>
+          <t>49,22; 61,76</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,94; 40,75</t>
+          <t>53,67; 66,9</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>49,2; 58,87</t>
+          <t>31,69; 41,04</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>28,17; 37,29</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>29,94; 37,92</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>32,03; 40,98</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>35,63; 46,31</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>49,28; 59,11</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>52,01; 61,32</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>31,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>37,53%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>37,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>53,98%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>37,61%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>30,55%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>32,86%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>37,12%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>31,04%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>32,4%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>31,97%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>37,11%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>51,03%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,66; 43,79</t>
+          <t>28,89; 42,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,96; 33,5</t>
+          <t>19,81; 32,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,36; 44,77</t>
+          <t>26,53; 42,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,21; 35,01</t>
+          <t>18,7; 34,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,34; 43,96</t>
+          <t>18,68; 32,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,14; 46,16</t>
+          <t>26,91; 44,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,13; 41,75</t>
+          <t>38,26; 54,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,02; 37,25</t>
+          <t>33,33; 46,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,83; 37,05</t>
+          <t>28,47; 42,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,8; 47,84</t>
+          <t>24,87; 36,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,6; 42,04</t>
+          <t>25,6; 39,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,43; 35,78</t>
+          <t>29,29; 46,96</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 38,0</t>
+          <t>28,56; 47,63</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>23,61; 34,22</t>
+          <t>46,04; 62,18</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>30,85; 43,99</t>
+          <t>33,3; 42,52</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>26,23; 36,08</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>27,67; 37,68</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>24,09; 34,24</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>26,04; 38,43</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 43,4</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>45,08; 57,13</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>44,74%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46,97%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>37,99%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>31,23%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>34,29%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>34,11%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32,27%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>46,04%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>49,53%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>35,94%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>30,56%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>32,26%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>30,76%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>45,39%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>48,26%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,12; 36,66</t>
+          <t>31,03; 36,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,83; 33,52</t>
+          <t>26,92; 32,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,33; 33,12</t>
+          <t>27,23; 32,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,26; 32,59</t>
+          <t>26,7; 33,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,42; 48,32</t>
+          <t>27,52; 34,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,28; 40,39</t>
+          <t>41,05; 48,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,52; 34,16</t>
+          <t>43,74; 50,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,98; 36,99</t>
+          <t>35,54; 40,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,72; 34,65</t>
+          <t>28,92; 33,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42,48; 49,18</t>
+          <t>31,46; 36,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34,07; 38,0</t>
+          <t>29,94; 34,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,66; 32,75</t>
+          <t>32,45; 38,71</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>30,39; 34,09</t>
+          <t>42,74; 49,16</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>28,85; 32,81</t>
+          <t>46,74; 52,51</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>42,89; 47,67</t>
+          <t>33,77; 37,81</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>28,57; 32,63</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>30,36; 34,01</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 33,14</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>30,61; 35,46</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>43,2; 47,87</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>45,91; 50,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,21%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>136092</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>96913</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>132693</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>112015</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>123928</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16744</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20308</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>142832</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>122809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>173049</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>113423</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>123091</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14228</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12826</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>278924</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>219722</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>305742</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>225439</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>247019</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>30972</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>33134</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>104551; 176276</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66134; 133154</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>92563; 173560</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74946; 158898</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>83674; 168252</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12788; 20954</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15611; 24868</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>111954; 178595</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>88640; 156742</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>137119; 212930</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>85207; 147202</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>87267; 163840</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10817; 17338</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9718; 16265</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>232108; 331210</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>175772; 271015</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>251472; 363108</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>175182; 277136</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>196827; 306878</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>25653; 36700</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>27367; 38691</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>205790</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>206754</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>173543</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>223605</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>165073</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22961</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22312</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>179789</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>153469</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>162405</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>153613</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>162881</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19559</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>19539</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>385579</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>360223</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>335948</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>377218</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>327954</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>42520</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>41851</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>158138; 259271</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>159557; 281511</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>139338; 216263</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>171047; 296207</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>106344; 217798</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18232; 27996</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17431; 27319</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>147412; 213831</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>119118; 193513</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>132011; 196164</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>121148; 189774</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>128205; 202756</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16510; 23592</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16030; 23002</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>326378; 449251</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>293956; 446197</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>286094; 389948</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>316625; 459832</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>261760; 395306</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>36160; 48444</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>36450; 47850</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>223351</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>206429</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>166241</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>170822</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>199555</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23144</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23566</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>221667</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>169153</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>245528</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>204804</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>233106</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>25101</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>26905</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>445017</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>375582</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>411769</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>375626</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>432661</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>48245</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>50472</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>182539; 268230</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>158902; 254190</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>129928; 205436</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>129732; 220710</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>151226; 253885</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19341; 27859</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19296; 28091</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>187461; 254954</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>136348; 207654</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>212375; 283789</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>175827; 237971</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>195116; 271414</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>21784; 28649</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>23029; 30895</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>396006; 503393</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>322633; 442344</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>360722; 466777</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>325011; 434852</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>372457; 495183</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>43093; 53742</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>44874; 56272</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>232196</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>219995</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>207588</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>203661</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>222667</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30348</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27708</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>308599</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>251015</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>240093</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>265167</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>253761</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27334</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>27604</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>540796</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>471010</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>447680</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>468828</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>476428</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>57683</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>55313</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>198481; 270639</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>181454; 262483</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>173628; 247469</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>169009; 242519</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>178332; 273896</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25222; 34372</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24000; 31609</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>277222; 348534</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>215900; 293179</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>207457; 272873</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>235673; 303314</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>217538; 290704</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>23606; 30899</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24195; 30860</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>490961; 597147</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>417641; 531151</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>396818; 495129</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>416720; 517876</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>426675; 542057</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>52588; 63195</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>49974; 60292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>162748</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>148083</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>165843</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>188095</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23314</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22853</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>205042</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>175959</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>177759</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>194212</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>217969</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>26963</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>27403</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>367790</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>324042</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>337901</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>360055</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>406064</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>50276</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>50255</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>131319; 195423</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>114988; 184254</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>131940; 193110</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>137205; 196935</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>150429; 223868</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20262; 26688</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19528; 26090</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>174843; 235978</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>146894; 210973</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>150048; 209939</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>162808; 228631</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>179910; 256742</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>24005; 30122</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>24281; 30267</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>317709; 411402</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>282365; 373753</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>298047; 377533</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>319364; 408659</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>353035; 458861</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>45830; 54968</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>46260; 54539</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>185462</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>142856</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>174709</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>134070</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>138765</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16634</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21460</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>275089</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>245970</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>203758</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>217214</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>263790</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>23813</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>33434</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>460551</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>388826</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>378467</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>351284</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>402555</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>40447</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>54894</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>152482; 225998</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>107983; 179234</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>135717; 216710</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>98289; 180095</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>103950; 183296</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12445; 20693</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17461; 24972</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>232270; 322055</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>201366; 301580</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>163299; 242412</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>174955; 270617</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>205884; 330066</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>17917; 29883</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>28514; 38513</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>407874; 520681</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>328552; 451879</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>323201; 440178</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>291205; 413973</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>327972; 483912</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>34088; 47300</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>48492; 61453</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>517.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1032.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>744.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>946.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>895.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>753.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>917.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>968.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1145640</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1021030</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1014916</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1010017</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1038083</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>133145</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>138207</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1333018</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1118375</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1202592</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1148433</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1254597</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>136998</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>147711</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2478658</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2139405</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>2217508</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>2158450</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>2292680</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>270143</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>285918</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1051524; 1241007</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>923957; 1126434</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>921275; 1105092</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>911328; 1132743</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>930747; 1150662</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>122147; 142978</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>128686; 148584</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1247201; 1428353</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1033800; 1213733</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1108909; 1277220</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1065310; 1244792</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1145853; 1366932</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>127167; 146288</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>139406; 156597</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2329314; 2607580</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>2002207; 2286533</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>2097774; 2349976</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>2033742; 2310628</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>2116663; 2452041</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>257073; 284866</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>271987; 299472</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>